--- a/C1000-24T-4G-L_VI.xlsx
+++ b/C1000-24T-4G-L_VI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\SP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99202046-FFEA-4BEF-B7B3-D87B3AED995C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC88EDB-8488-4619-883E-038F6149EF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="14595" windowHeight="8746" xr2:uid="{47789BF5-0E1F-418F-8373-0695E73B4161}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{47789BF5-0E1F-418F-8373-0695E73B4161}"/>
   </bookViews>
   <sheets>
     <sheet name="C1000-24T-4G-L" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>Khối lượng</t>
   </si>
   <si>
-    <t>Bảo hành</t>
-  </si>
-  <si>
     <t>12 tháng</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>44.39 x 24.00 x 4.39 cm</t>
+  </si>
+  <si>
+    <t>Bảo hành phần cứng</t>
   </si>
 </sst>
 </file>
@@ -660,18 +660,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B73E3E-A3BB-4615-9B13-2F589783187D}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1328125" customWidth="1"/>
-    <col min="3" max="3" width="30.06640625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,34 +680,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
@@ -718,7 +716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -727,16 +725,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
         <v>10</v>
@@ -745,25 +743,25 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="8">
         <v>16000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="97.15" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="6" t="s">
         <v>12</v>
@@ -772,7 +770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="41.65" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
@@ -781,28 +779,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>19</v>
@@ -811,14 +809,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="16"/>
     </row>
-    <row r="18" spans="1:3" ht="97.15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="6" t="s">
         <v>22</v>
@@ -827,16 +825,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="69.400000000000006" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="69" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="6" t="s">
         <v>25</v>
@@ -845,31 +843,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/C1000-24T-4G-L_VI.xlsx
+++ b/C1000-24T-4G-L_VI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\specs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\SPEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC88EDB-8488-4619-883E-038F6149EF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE1FA45-CB00-4B99-86DE-4E677D1CF637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{47789BF5-0E1F-418F-8373-0695E73B4161}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>TT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Thông số kỹ thuật</t>
   </si>
@@ -204,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -253,96 +250,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,225 +588,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B73E3E-A3BB-4615-9B13-2F589783187D}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8">
-        <v>4094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="8">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="16"/>
-    </row>
-    <row r="18" spans="1:3" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="6" t="s">
+    <row r="20" spans="1:2" ht="69" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="69" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="6" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/C1000-24T-4G-L_VI.xlsx
+++ b/C1000-24T-4G-L_VI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\SPEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\spec pc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE1FA45-CB00-4B99-86DE-4E677D1CF637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0A4F40-CD22-4784-B1D8-C6CE2BDF5F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{47789BF5-0E1F-418F-8373-0695E73B4161}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Thông số kỹ thuật</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Khối lượng</t>
   </si>
   <si>
-    <t>12 tháng</t>
-  </si>
-  <si>
     <t>Số địa chỉ Unicast MAC addresses</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
   </si>
   <si>
     <t>44.39 x 24.00 x 4.39 cm</t>
-  </si>
-  <si>
-    <t>Bảo hành phần cứng</t>
   </si>
 </sst>
 </file>
@@ -588,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B73E3E-A3BB-4615-9B13-2F589783187D}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -608,7 +602,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5"/>
     </row>
@@ -617,7 +611,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
@@ -625,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -649,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -662,7 +656,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4">
         <v>16000</v>
@@ -673,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="110.4" x14ac:dyDescent="0.3">
@@ -737,7 +731,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="69" x14ac:dyDescent="0.3">
@@ -753,7 +747,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -761,15 +755,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
